--- a/image/nutritionorder.xlsx
+++ b/image/nutritionorder.xlsx
@@ -1381,45 +1381,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.35546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="49.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.32421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="50.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.54296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.34375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="128.0390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.68359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.9296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="128.23046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.36328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="53.2890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="27.73828125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="28.37109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="109.7734375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="28.03125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1953125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="109.53125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/nutritionorder.xlsx
+++ b/image/nutritionorder.xlsx
@@ -431,7 +431,7 @@
     <t>NutritionOrder.status</t>
   </si>
   <si>
-    <t>proposed | draft | planned | requested | active | on-hold | completed | cancelled | entered-in-error</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The workflow status of the nutrition order/request.</t>
@@ -468,7 +468,7 @@
 </t>
   </si>
   <si>
-    <t>proposal | plan | order</t>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the NutrionOrder and where the request fits into the workflow chain.</t>
@@ -1391,7 +1391,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.34375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/image/nutritionorder.xlsx
+++ b/image/nutritionorder.xlsx
@@ -431,7 +431,7 @@
     <t>NutritionOrder.status</t>
   </si>
   <si>
-    <t>proposed | draft | planned | requested | active | on-hold | completed | cancelled | entered-in-error</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The workflow status of the nutrition order/request.</t>
@@ -468,7 +468,7 @@
 </t>
   </si>
   <si>
-    <t>proposal | plan | order</t>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the NutrionOrder and where the request fits into the workflow chain.</t>
@@ -1381,45 +1381,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.35546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="49.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.32421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="50.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.54296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="128.0390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.68359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.9296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="128.23046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.36328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="53.2890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="27.73828125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="28.37109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="109.7734375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="28.03125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1953125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="109.53125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/nutritionorder.xlsx
+++ b/image/nutritionorder.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="397">
   <si>
     <t>Path</t>
   </si>
@@ -178,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -691,10 +691,6 @@
   </si>
   <si>
     <t>NutritionOrder.oralDiet.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1381,45 +1377,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.32421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="50.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.35546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="49.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="128.23046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.36328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="53.2890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="128.0390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.68359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="51.9296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="28.03125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="28.1953125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="109.53125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="27.73828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.37109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="109.7734375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4109,13 +4105,13 @@
         <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4166,7 +4162,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4187,7 +4183,7 @@
         <v>43</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -4195,7 +4191,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4224,7 +4220,7 @@
         <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>100</v>
@@ -4277,7 +4273,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4298,7 +4294,7 @@
         <v>43</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -4306,11 +4302,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4332,10 +4328,10 @@
         <v>97</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>100</v>
@@ -4390,7 +4386,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4419,7 +4415,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4445,10 +4441,10 @@
         <v>194</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4478,11 +4474,11 @@
         <v>198</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>43</v>
       </c>
@@ -4499,7 +4495,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4514,25 +4510,25 @@
         <v>43</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4551,13 +4547,13 @@
         <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4608,7 +4604,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4623,13 +4619,13 @@
         <v>43</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -4637,7 +4633,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4663,10 +4659,10 @@
         <v>210</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4717,7 +4713,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4735,10 +4731,10 @@
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -4746,7 +4742,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4769,13 +4765,13 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4826,7 +4822,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4847,7 +4843,7 @@
         <v>43</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -4855,7 +4851,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4884,7 +4880,7 @@
         <v>98</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>100</v>
@@ -4937,7 +4933,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4958,7 +4954,7 @@
         <v>43</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -4966,11 +4962,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4992,10 +4988,10 @@
         <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>100</v>
@@ -5050,7 +5046,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5079,7 +5075,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5105,10 +5101,10 @@
         <v>194</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5138,11 +5134,11 @@
         <v>198</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>43</v>
       </c>
@@ -5159,7 +5155,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5174,21 +5170,21 @@
         <v>43</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5211,13 +5207,13 @@
         <v>43</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5268,7 +5264,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5286,10 +5282,10 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>43</v>
@@ -5297,7 +5293,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5323,10 +5319,10 @@
         <v>210</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5377,7 +5373,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5395,10 +5391,10 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>43</v>
@@ -5406,7 +5402,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5429,13 +5425,13 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5486,7 +5482,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5507,7 +5503,7 @@
         <v>43</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>
@@ -5515,7 +5511,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5544,7 +5540,7 @@
         <v>98</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>100</v>
@@ -5597,7 +5593,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5618,7 +5614,7 @@
         <v>43</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>43</v>
@@ -5626,11 +5622,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5652,10 +5648,10 @@
         <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>100</v>
@@ -5710,7 +5706,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5739,7 +5735,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5765,13 +5761,13 @@
         <v>194</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5800,11 +5796,11 @@
         <v>198</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>43</v>
       </c>
@@ -5821,7 +5817,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5836,13 +5832,13 @@
         <v>43</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>43</v>
@@ -5850,7 +5846,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5876,13 +5872,13 @@
         <v>194</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5911,11 +5907,11 @@
         <v>198</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>43</v>
       </c>
@@ -5932,7 +5928,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5947,13 +5943,13 @@
         <v>43</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>43</v>
@@ -5961,7 +5957,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5987,10 +5983,10 @@
         <v>194</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6020,11 +6016,11 @@
         <v>198</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>43</v>
       </c>
@@ -6041,7 +6037,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6056,13 +6052,13 @@
         <v>43</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>43</v>
@@ -6070,7 +6066,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6093,16 +6089,16 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6152,7 +6148,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6167,13 +6163,13 @@
         <v>43</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>43</v>
@@ -6181,7 +6177,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6207,10 +6203,10 @@
         <v>210</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6261,7 +6257,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6279,10 +6275,10 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
@@ -6290,7 +6286,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6313,13 +6309,13 @@
         <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6370,7 +6366,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6391,7 +6387,7 @@
         <v>43</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>43</v>
@@ -6399,7 +6395,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6428,7 +6424,7 @@
         <v>98</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>100</v>
@@ -6481,7 +6477,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6502,7 +6498,7 @@
         <v>43</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>43</v>
@@ -6510,11 +6506,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6536,10 +6532,10 @@
         <v>97</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>100</v>
@@ -6594,7 +6590,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6623,7 +6619,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6649,10 +6645,10 @@
         <v>194</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6682,11 +6678,11 @@
         <v>198</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>43</v>
       </c>
@@ -6703,7 +6699,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6718,21 +6714,21 @@
         <v>43</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="AL48" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6755,13 +6751,13 @@
         <v>43</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6812,7 +6808,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6830,7 +6826,7 @@
         <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>114</v>
@@ -6841,11 +6837,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6864,13 +6860,13 @@
         <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6921,7 +6917,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6936,13 +6932,13 @@
         <v>43</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>43</v>
@@ -6950,7 +6946,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6973,13 +6969,13 @@
         <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7030,7 +7026,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7048,10 +7044,10 @@
         <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>43</v>
@@ -7059,7 +7055,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7082,16 +7078,16 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7141,7 +7137,7 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7156,13 +7152,13 @@
         <v>43</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>43</v>
@@ -7170,7 +7166,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7196,10 +7192,10 @@
         <v>210</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7250,7 +7246,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7268,10 +7264,10 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>43</v>
@@ -7279,7 +7275,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7302,13 +7298,13 @@
         <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7359,7 +7355,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7380,7 +7376,7 @@
         <v>43</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>43</v>
@@ -7388,7 +7384,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7417,7 +7413,7 @@
         <v>98</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>100</v>
@@ -7470,7 +7466,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7491,7 +7487,7 @@
         <v>43</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>43</v>
@@ -7499,11 +7495,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7525,10 +7521,10 @@
         <v>97</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>100</v>
@@ -7583,7 +7579,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7612,7 +7608,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7638,10 +7634,10 @@
         <v>194</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7671,11 +7667,11 @@
         <v>198</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>43</v>
       </c>
@@ -7692,7 +7688,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7707,21 +7703,21 @@
         <v>43</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="AL57" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7744,13 +7740,13 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7801,7 +7797,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7819,7 +7815,7 @@
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>114</v>
@@ -7830,7 +7826,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7856,10 +7852,10 @@
         <v>194</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7889,11 +7885,11 @@
         <v>198</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>43</v>
       </c>
@@ -7910,7 +7906,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7925,21 +7921,21 @@
         <v>43</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK59" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="AL59" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7962,13 +7958,13 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8019,7 +8015,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8037,7 +8033,7 @@
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>94</v>
@@ -8048,7 +8044,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8071,13 +8067,13 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8128,7 +8124,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8146,10 +8142,10 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
@@ -8157,7 +8153,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8183,10 +8179,10 @@
         <v>194</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8213,14 +8209,14 @@
         <v>43</v>
       </c>
       <c r="W62" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="X62" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="X62" t="s" s="2">
+      <c r="Y62" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>43</v>
       </c>
@@ -8237,7 +8233,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8255,10 +8251,10 @@
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8266,7 +8262,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8292,13 +8288,13 @@
         <v>210</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8348,7 +8344,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8366,10 +8362,10 @@
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>43</v>
@@ -8377,7 +8373,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8400,13 +8396,13 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8457,7 +8453,7 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8478,7 +8474,7 @@
         <v>43</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>43</v>
@@ -8486,7 +8482,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8515,7 +8511,7 @@
         <v>98</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>100</v>
@@ -8568,7 +8564,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8589,7 +8585,7 @@
         <v>43</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>43</v>
@@ -8597,11 +8593,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8623,10 +8619,10 @@
         <v>97</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>100</v>
@@ -8681,7 +8677,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8710,11 +8706,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8733,13 +8729,13 @@
         <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8790,7 +8786,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8805,13 +8801,13 @@
         <v>43</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>43</v>
@@ -8819,7 +8815,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8842,13 +8838,13 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8899,7 +8895,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8917,10 +8913,10 @@
         <v>43</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>43</v>
@@ -8928,7 +8924,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8951,16 +8947,16 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9010,7 +9006,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9028,10 +9024,10 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9039,7 +9035,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9062,13 +9058,13 @@
         <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9119,7 +9115,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9137,10 +9133,10 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -9148,7 +9144,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9171,16 +9167,16 @@
         <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="M71" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9230,7 +9226,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9245,10 +9241,10 @@
         <v>43</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>94</v>
@@ -9259,7 +9255,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9282,16 +9278,16 @@
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9341,7 +9337,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9356,7 +9352,7 @@
         <v>43</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>43</v>
